--- a/Madison/src/test/resources/Data.xlsx
+++ b/Madison/src/test/resources/Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -34,9 +34,6 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
-    <t>Rohith</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>Telephone</t>
   </si>
   <si>
-    <t>1,abc</t>
-  </si>
-  <si>
-    <t>chennai</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -104,6 +95,18 @@
   </si>
   <si>
     <t>pavan989</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1,LbNagar</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
   </si>
 </sst>
 </file>
@@ -483,19 +486,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +514,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,57 +531,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>60005</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>600079</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2">
-        <v>9898989898</v>
+        <v>7013592246</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -614,29 +617,29 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
